--- a/pub/Production/January6,2015ProductionMeeting/Site-VO_matrix_Dec_2014.xlsx
+++ b/pub/Production/January6,2015ProductionMeeting/Site-VO_matrix_Dec_2014.xlsx
@@ -919,12 +919,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -951,6 +945,12 @@
     </xf>
     <xf numFmtId="9" fontId="19" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1297,7 +1297,10 @@
   <dimension ref="A1:AX60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1313,21 +1316,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="13"/>
       <c r="D2" s="1" t="s">
         <v>16</v>
       </c>
@@ -9717,91 +9720,91 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="14.85546875" style="10" customWidth="1"/>
+    <col min="2" max="5" width="14.85546875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="6"/>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="9" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="11">
         <v>12077834</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="11">
         <v>14063260</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="11">
         <v>14652161</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="11">
         <f>SUM(report_2015_01_01!D4:G4)</f>
         <v>17596620</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="11">
         <v>66866854</v>
       </c>
-      <c r="C5" s="13">
+      <c r="C5" s="11">
         <v>67311954</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="11">
         <v>59709976</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="11">
         <f>report_2015_01_01!B4</f>
         <v>57958877</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="12">
         <f t="shared" ref="B6:D6" si="0">B4/B5</f>
         <v>0.18062512706220635</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="12">
         <f t="shared" si="0"/>
         <v>0.2089266343389764</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="12">
         <f t="shared" si="0"/>
         <v>0.24538882748839155</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="12">
         <f>E4/E5</f>
         <v>0.3036052613648812</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
+      <c r="A7" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
